--- a/social_media_scraper/Final_Output/social_media_posts.xlsx
+++ b/social_media_scraper/Final_Output/social_media_posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Social Media Analytics Dashboard\social_media_scraper\Final_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1A1C1D-4849-4F0C-81B2-28B17AF1E87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE02AAE-C423-4488-BCF1-DE333F4E3DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3303,7 +3303,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -3359,7 +3359,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3665,10 +3665,14 @@
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3755,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
@@ -3799,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
@@ -3840,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="N4" t="s">
         <v>21</v>
@@ -3887,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="N5" t="s">
         <v>21</v>
@@ -3934,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
@@ -3981,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="N7" t="s">
         <v>21</v>
@@ -4028,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="N8" t="s">
         <v>40</v>
@@ -4075,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="N9" t="s">
         <v>21</v>
@@ -4122,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="N10" t="s">
         <v>21</v>
@@ -4169,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="N11" t="s">
         <v>40</v>
@@ -4216,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="N12" t="s">
         <v>21</v>
@@ -4263,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="N13" t="s">
         <v>21</v>
@@ -4310,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="N14" t="s">
         <v>21</v>
@@ -4357,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="N15" t="s">
         <v>40</v>
@@ -4404,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="N16" t="s">
         <v>21</v>
@@ -4451,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="N17" t="s">
         <v>21</v>

--- a/social_media_scraper/Final_Output/social_media_posts.xlsx
+++ b/social_media_scraper/Final_Output/social_media_posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Social Media Analytics Dashboard\social_media_scraper\Final_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE02AAE-C423-4488-BCF1-DE333F4E3DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DA07B1-6FC8-449F-955E-148CD9A40873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3664,14 +3664,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="1" max="16" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">

--- a/social_media_scraper/Final_Output/social_media_posts.xlsx
+++ b/social_media_scraper/Final_Output/social_media_posts.xlsx
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -6116,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
@@ -6548,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
@@ -6830,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
@@ -6975,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
@@ -8390,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
@@ -8530,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
@@ -8952,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
@@ -9229,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
@@ -9511,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
@@ -9783,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
@@ -9923,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
@@ -10201,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
@@ -10340,7 +10340,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
@@ -10478,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
@@ -10617,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
@@ -10882,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
@@ -11298,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
@@ -11445,7 +11445,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
@@ -11584,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
@@ -11724,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
@@ -12002,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
@@ -12284,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
@@ -12567,7 +12567,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
@@ -12709,7 +12709,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
@@ -12848,7 +12848,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>14000000</v>
+        <v>18000000</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
